--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>783942.0794672455</v>
+        <v>782054.4979508431</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593914.0393420046</v>
+        <v>156834.2727103613</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>139.9144241099051</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>94.32392630195987</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -744,13 +744,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554011</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.44420492154106</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>9.461970681989463</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>199.470417744514</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.6589369088628</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>89.06613335611783</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.8263535402513</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>109.7617263221762</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15.67129869336543</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.88545101545</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>149.729034972117</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>94.16481274941243</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.7991263300496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>57.64843562452408</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847135</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>134.280608815779</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>36.88234405457717</v>
       </c>
     </row>
     <row r="23">
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>186.1806370115543</v>
       </c>
       <c r="X25" t="n">
-        <v>66.53347333264928</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>96.84207451769281</v>
       </c>
       <c r="U28" t="n">
-        <v>201.4744145885767</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965513</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>22.14609241444965</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523558</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>63.11622243099658</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373581</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
@@ -3247,7 +3247,7 @@
         <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069493</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>588.0044362889284</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C2" t="n">
-        <v>588.0044362889284</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>588.0044362889284</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>202.2161836906842</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>195.2706829414807</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2370.666220628583</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2370.666220628583</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.6042763530502</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,7 +4419,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.944160717209</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>1188.678462110459</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>802.8902095122144</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>795.9447087630109</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2323.103882821189</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,7 +4805,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2136.437816206488</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2136.437816206488</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1762.972057945408</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>69.77257646012751</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5033,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5121,25 +5121,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>465.390741891857</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1079.287811648746</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M12" t="n">
-        <v>1847.655958041207</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.4651278373168</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>545.4651278373168</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>395.348488424981</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>395.348488424981</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>248.4585409270707</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655739</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655739</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>727.1135926675565</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.1135926675565</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,25 +5358,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>327.180197328635</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>647.5155168583368</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N15" t="n">
-        <v>1451.927095122488</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.0663679705858</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150547</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170373</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y16" t="n">
-        <v>595.7148328008255</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>688.9285765597828</v>
       </c>
       <c r="M18" t="n">
-        <v>1609.589088435861</v>
+        <v>1009.263896089485</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N21" t="n">
-        <v>2328.464088060424</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O21" t="n">
-        <v>2328.464088060424</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>716.8555221680795</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C22" t="n">
-        <v>547.9193392401726</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,10 +5908,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799363</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983192</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="X22" t="n">
-        <v>898.5039869983192</v>
+        <v>303.4081673726141</v>
       </c>
       <c r="Y22" t="n">
-        <v>898.5039869983192</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>468.1285362447716</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N24" t="n">
-        <v>2328.464088060424</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O24" t="n">
-        <v>2328.464088060424</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>377.6878657662453</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,16 +6151,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247851</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383435</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655736</v>
+        <v>675.0071030383435</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286131</v>
+        <v>486.945853531723</v>
       </c>
       <c r="X25" t="n">
-        <v>598.4804449097754</v>
+        <v>486.945853531723</v>
       </c>
       <c r="Y25" t="n">
-        <v>377.6878657662453</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6224,16 +6224,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>194.0700364812131</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>424.0331423495622</v>
       </c>
       <c r="M27" t="n">
-        <v>1288.32563221405</v>
+        <v>744.368461879264</v>
       </c>
       <c r="N27" t="n">
-        <v>1288.32563221405</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>1095.486750788024</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>840.8022625821369</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>840.8022625821369</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>612.8127116841196</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,28 +6446,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M30" t="n">
-        <v>879.9217857387539</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N30" t="n">
-        <v>1684.333364002905</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O30" t="n">
-        <v>2353.797125305564</v>
+        <v>2198.113937389053</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2380.757415002404</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.803219852031</v>
+        <v>439.5324299542214</v>
       </c>
       <c r="C31" t="n">
-        <v>430.6279022054948</v>
+        <v>326.3571123076854</v>
       </c>
       <c r="D31" t="n">
-        <v>336.2721280745299</v>
+        <v>232.0013381767202</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1198997735075</v>
+        <v>232.0013381767202</v>
       </c>
       <c r="F31" t="n">
-        <v>152.9908175569678</v>
+        <v>232.0013381767202</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569678</v>
+        <v>119.5868817779118</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>119.5868817779118</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1672.898920064883</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1439.531146559812</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1240.607523635296</v>
+        <v>1136.336733737486</v>
       </c>
       <c r="W31" t="n">
-        <v>1006.951218879706</v>
+        <v>902.6804289818959</v>
       </c>
       <c r="X31" t="n">
-        <v>834.7225332630594</v>
+        <v>730.4517433652495</v>
       </c>
       <c r="Y31" t="n">
-        <v>669.6908194009</v>
+        <v>565.4200295030902</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
         <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>452.5377573864724</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M33" t="n">
-        <v>772.8730769161741</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.284655180325</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O33" t="n">
-        <v>2246.748416482984</v>
+        <v>2170.791457744991</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,22 +6920,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6950,19 +6950,19 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1606.390201511077</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2275.853962813736</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,16 +7172,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,7 +7190,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,67 +7394,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>169.6519675302112</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>169.6519675302112</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7646,10 +7646,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7731,22 +7731,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>378.6355840713939</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>235.6726965712552</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>38.44310275214656</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>458.6680275259625</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>16.76453349126061</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,10 +23704,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>51.71984429841027</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.78552702204516</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>87.77261239840716</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23941,16 +23941,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>103.0576765518775</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14.33486420243338</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>181.7023092975176</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>100.3423613250367</v>
       </c>
       <c r="X25" t="n">
-        <v>159.1761820563879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>124.7054865406965</v>
       </c>
       <c r="U28" t="n">
-        <v>84.76293781000064</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801194</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437402</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.7105717389789</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.06989642126513</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>103.2280819988356</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.037392394209746e-12</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="E2" t="n">
         <v>351926.1537639379</v>
@@ -26326,31 +26326,31 @@
         <v>351926.1537639379</v>
       </c>
       <c r="G2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639378</v>
       </c>
       <c r="H2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639377</v>
       </c>
       <c r="I2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639378</v>
       </c>
       <c r="J2" t="n">
         <v>351926.1537639379</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107426</v>
+        <v>366139.9236107424</v>
       </c>
       <c r="L2" t="n">
         <v>369468.7964389281</v>
       </c>
       <c r="M2" t="n">
+        <v>369468.7964389281</v>
+      </c>
+      <c r="N2" t="n">
+        <v>369468.7964389281</v>
+      </c>
+      <c r="O2" t="n">
         <v>369468.7964389282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>369468.7964389282</v>
-      </c>
-      <c r="O2" t="n">
-        <v>369468.7964389281</v>
       </c>
       <c r="P2" t="n">
         <v>369468.7964389281</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.6053028458</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086673</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284579</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758888</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758825</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758824</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477247</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189639</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,13 +26485,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,13 +26500,13 @@
         <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26528,40 +26528,40 @@
         <v>147550.5791948988</v>
       </c>
       <c r="E6" t="n">
-        <v>-266009.0023522507</v>
+        <v>-266106.4614782229</v>
       </c>
       <c r="F6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986732</v>
       </c>
       <c r="G6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986731</v>
       </c>
       <c r="H6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986731</v>
       </c>
       <c r="I6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986732</v>
       </c>
       <c r="J6" t="n">
-        <v>82727.81493205242</v>
+        <v>82630.3558060803</v>
       </c>
       <c r="K6" t="n">
-        <v>206396.6935729018</v>
+        <v>206378.199834967</v>
       </c>
       <c r="L6" t="n">
-        <v>238204.2028861395</v>
+        <v>238204.2028861397</v>
       </c>
       <c r="M6" t="n">
-        <v>113746.0944531691</v>
+        <v>113746.0944531692</v>
       </c>
       <c r="N6" t="n">
+        <v>248547.1096870064</v>
+      </c>
+      <c r="O6" t="n">
         <v>248547.1096870065</v>
       </c>
-      <c r="O6" t="n">
-        <v>248547.1096870064</v>
-      </c>
       <c r="P6" t="n">
-        <v>204384.5043841608</v>
+        <v>204384.5043841606</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26753,13 +26753,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108342</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>273.8697459108898</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>156.9002412063294</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27464,13 +27464,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.38777526039624</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>209.1226826701053</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>183.2634239189666</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>3.125233111932232</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27822,13 +27822,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663783</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>136.6435220329193</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.90748812322931</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>217.9905321479587</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>151.5755224052624</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>16.63754732114097</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29272,13 +29272,13 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31139,10 +31139,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
@@ -31373,10 +31373,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,28 +31613,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9005868329995</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31841,28 +31841,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2687781552867</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>351.851620700325</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32002,7 +32002,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565519</v>
@@ -32084,22 +32084,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>108.5686435537649</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32315,13 +32315,13 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>70.77739093025048</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9375118102116744</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32330,13 +32330,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>47.47008529580756</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,7 +32707,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32789,16 +32789,16 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>80.03301270129896</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32810,7 +32810,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,22 +33023,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>273.8226464915811</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33047,13 +33047,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,10 +33260,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
@@ -33272,19 +33272,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>164.4358785485904</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33503,25 +33503,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>196.1430416967711</v>
+        <v>192.0343428355222</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33670,7 +33670,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540898</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946992</v>
@@ -33737,22 +33737,22 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>156.006113991668</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33971,13 +33971,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>270.8978656474354</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -33986,10 +33986,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>73.91313281103095</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34366,13 +34366,13 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
@@ -34451,25 +34451,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>371.8925761935063</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>584.13758622391</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221117</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>247.2938719880605</v>
       </c>
       <c r="O15" t="n">
-        <v>359.83471838605</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>303.0633564538355</v>
       </c>
       <c r="M18" t="n">
-        <v>324.5085416381933</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
@@ -35978,13 +35978,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>274.515464094862</v>
+        <v>395.4707475560278</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>206.6568107395186</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.515464094862</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36525,7 +36525,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206028</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>97.83125759689621</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>525.0887213238661</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>348.8674798026128</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>234.531392198418</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412274</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>380.6314029223781</v>
+        <v>376.5227040611292</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>340.4944752172749</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>503.1838311710204</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>73.16654148477309</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38099,25 +38099,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>327.3263154426292</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
